--- a/A02RSDS_PRICING REPORT.xlsx
+++ b/A02RSDS_PRICING REPORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypabl\Desktop\ARAMIS 2024\A02RSDS\CORRECTION ATT\REDESIGN FRONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984FF946-7388-45FF-BA66-9C787AAE3C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4037141C-7D66-463F-A113-2187DDBCE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Pricing Report</t>
   </si>
   <si>
-    <t>RQST By: MOREJON ANNIET</t>
-  </si>
-  <si>
     <t>**** CONSTRUCTION DETAILS ****</t>
   </si>
   <si>
@@ -438,21 +435,12 @@
     <t>0.33 HRS</t>
   </si>
   <si>
-    <t>Generated: 07/03/2024, 12:18 PM</t>
-  </si>
-  <si>
-    <t>Pricing Date: 07/03/2024</t>
-  </si>
-  <si>
     <t>295.49 HRS</t>
   </si>
   <si>
     <t>211.25 HRS</t>
   </si>
   <si>
-    <t>245.27 HRS</t>
-  </si>
-  <si>
     <t>11.53 HRS</t>
   </si>
   <si>
@@ -463,6 +451,18 @@
   </si>
   <si>
     <t>0.11 HRS</t>
+  </si>
+  <si>
+    <t>Generated: 07/15/2024, 11:13 AM</t>
+  </si>
+  <si>
+    <t>RQST By: ARAMIS</t>
+  </si>
+  <si>
+    <t>Pricing Date: 07/15/2024</t>
+  </si>
+  <si>
+    <t>245.63 HRS</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
   <dimension ref="A1:G377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G371"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,69 +908,69 @@
     </row>
     <row r="3" spans="1:7" ht="85.5">
       <c r="A3" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="71.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.25">
       <c r="A7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57">
       <c r="A10" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="E11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42.75">
       <c r="A12" s="6"/>
       <c r="B12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -991,7 +991,7 @@
     <row r="13" spans="1:7" ht="42.75">
       <c r="A13" s="6"/>
       <c r="B13" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -1012,7 +1012,7 @@
     <row r="14" spans="1:7" ht="28.5">
       <c r="A14" s="6"/>
       <c r="B14" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -1033,19 +1033,19 @@
     <row r="15" spans="1:7" ht="42.75">
       <c r="A15" s="6"/>
       <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>39</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -1054,7 +1054,7 @@
     <row r="16" spans="1:7" ht="42.75">
       <c r="A16" s="6"/>
       <c r="B16" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1075,7 +1075,7 @@
     <row r="17" spans="1:7" ht="28.5">
       <c r="A17" s="6"/>
       <c r="B17" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     <row r="18" spans="1:7" ht="42.75">
       <c r="A18" s="6"/>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     <row r="19" spans="1:7" ht="42.75">
       <c r="A19" s="6"/>
       <c r="B19" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -1138,7 +1138,7 @@
     <row r="20" spans="1:7" ht="28.5">
       <c r="A20" s="6"/>
       <c r="B20" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1159,7 +1159,7 @@
     <row r="21" spans="1:7" ht="42.75">
       <c r="A21" s="6"/>
       <c r="B21" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>165</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     <row r="22" spans="1:7" ht="42.75">
       <c r="A22" s="6"/>
       <c r="B22" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>82</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -1201,7 +1201,7 @@
     <row r="23" spans="1:7" ht="28.5">
       <c r="A23" s="6"/>
       <c r="B23" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1222,7 +1222,7 @@
     <row r="24" spans="1:7" ht="42.75">
       <c r="A24" s="6"/>
       <c r="B24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1243,7 +1243,7 @@
     <row r="25" spans="1:7" ht="42.75">
       <c r="A25" s="6"/>
       <c r="B25" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1264,7 +1264,7 @@
     <row r="26" spans="1:7" ht="42.75">
       <c r="A26" s="6"/>
       <c r="B26" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -1285,7 +1285,7 @@
     <row r="27" spans="1:7" ht="42.75">
       <c r="A27" s="6"/>
       <c r="B27" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -1306,7 +1306,7 @@
     <row r="28" spans="1:7" ht="42.75">
       <c r="A28" s="6"/>
       <c r="B28" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -1327,7 +1327,7 @@
     <row r="29" spans="1:7" ht="28.5">
       <c r="A29" s="6"/>
       <c r="B29" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     <row r="30" spans="1:7" ht="28.5">
       <c r="A30" s="6"/>
       <c r="B30" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
@@ -1379,15 +1379,15 @@
       <c r="A32" s="6"/>
       <c r="B32" s="9"/>
       <c r="C32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1417,12 +1417,12 @@
     <row r="35" spans="1:7" ht="71.25">
       <c r="A35" s="6"/>
       <c r="B35" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F35" s="7">
         <v>32.21</v>
@@ -1434,7 +1434,7 @@
     <row r="36" spans="1:7" ht="42.75">
       <c r="A36" s="6"/>
       <c r="B36" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="38" spans="1:7" ht="42.75">
       <c r="A38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1475,12 +1475,12 @@
     <row r="39" spans="1:7" ht="42.75">
       <c r="A39" s="6"/>
       <c r="B39" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F39" s="7">
         <v>163.96</v>
@@ -1492,12 +1492,12 @@
     <row r="40" spans="1:7" ht="42.75">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F40" s="7">
         <v>163.96</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="42" spans="1:7" ht="28.5">
       <c r="A42" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1533,20 +1533,20 @@
     <row r="43" spans="1:7" ht="28.5">
       <c r="A43" s="6"/>
       <c r="B43" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="10">
-        <v>238662.28</v>
+        <v>239089.74</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="57">
       <c r="A44" s="6"/>
       <c r="B44" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1567,34 +1567,34 @@
     </row>
     <row r="46" spans="1:7" ht="42.75">
       <c r="A46" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="10">
-        <v>238742.28</v>
+        <v>239169.74</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.5">
       <c r="A47" s="6"/>
       <c r="B47" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F47" s="7">
         <v>125.64</v>
       </c>
       <c r="G47" s="10">
-        <v>30815.66</v>
+        <v>30861.53</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1608,36 +1608,36 @@
     </row>
     <row r="49" spans="1:7" ht="42.75">
       <c r="A49" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="10">
-        <v>30815.66</v>
+        <v>30861.53</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="85.5">
       <c r="A50" s="6"/>
       <c r="B50" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="10">
-        <v>361560.44</v>
+        <v>362033.77</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="57">
       <c r="A51" s="6"/>
       <c r="B51" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1658,17 +1658,17 @@
     </row>
     <row r="53" spans="1:7" ht="28.5">
       <c r="A53" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="10">
-        <v>448856.44</v>
+        <v>449329.77</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1683,7 +1683,7 @@
     <row r="55" spans="1:7" ht="28.5">
       <c r="A55" s="6"/>
       <c r="B55" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -1696,12 +1696,12 @@
     <row r="56" spans="1:7" ht="28.5">
       <c r="A56" s="6"/>
       <c r="B56" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7">
-        <v>245.27</v>
+        <v>245.63</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="6"/>
@@ -1709,7 +1709,7 @@
     <row r="57" spans="1:7" ht="42.75">
       <c r="A57" s="6"/>
       <c r="B57" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -1721,69 +1721,69 @@
     </row>
     <row r="58" spans="1:7" ht="85.5">
       <c r="A58" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="71.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="42.75">
       <c r="A59" s="3" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="85.5">
       <c r="A60" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="71.25">
       <c r="A62" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.5">
       <c r="A63" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="28.5">
       <c r="A64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="57">
       <c r="A65" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="42.75">
       <c r="A66" s="19"/>
       <c r="B66" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="D66" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="E66" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="F66" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="G66" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="6"/>
       <c r="B67" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" s="6">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     <row r="68" spans="1:7">
       <c r="A68" s="6"/>
       <c r="B68" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>120</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68" s="6">
         <v>0</v>
@@ -1825,7 +1825,7 @@
     <row r="69" spans="1:7" ht="28.5">
       <c r="A69" s="6"/>
       <c r="B69" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -1846,7 +1846,7 @@
     <row r="70" spans="1:7" ht="28.5">
       <c r="A70" s="6"/>
       <c r="B70" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" s="6">
         <v>0</v>
@@ -1867,7 +1867,7 @@
     <row r="71" spans="1:7" ht="28.5">
       <c r="A71" s="6"/>
       <c r="B71" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" s="7">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>872</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" s="6">
         <v>0</v>
@@ -1888,7 +1888,7 @@
     <row r="72" spans="1:7" ht="42.75">
       <c r="A72" s="6"/>
       <c r="B72" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C72" s="7">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     <row r="73" spans="1:7" ht="42.75">
       <c r="A73" s="6"/>
       <c r="B73" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" s="7">
         <v>0</v>
@@ -1930,7 +1930,7 @@
     <row r="74" spans="1:7" ht="28.5">
       <c r="A74" s="6"/>
       <c r="B74" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C74" s="7">
         <v>0</v>
@@ -1961,15 +1961,15 @@
       <c r="A76" s="6"/>
       <c r="B76" s="9"/>
       <c r="C76" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -1999,12 +1999,12 @@
     <row r="79" spans="1:7" ht="71.25">
       <c r="A79" s="6"/>
       <c r="B79" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F79" s="7">
         <v>32.21</v>
@@ -2016,7 +2016,7 @@
     <row r="80" spans="1:7" ht="42.75">
       <c r="A80" s="6"/>
       <c r="B80" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2041,10 +2041,10 @@
     </row>
     <row r="82" spans="1:7" ht="42.75">
       <c r="A82" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2057,12 +2057,12 @@
     <row r="83" spans="1:7" ht="42.75">
       <c r="A83" s="6"/>
       <c r="B83" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F83" s="7">
         <v>163.96</v>
@@ -2074,12 +2074,12 @@
     <row r="84" spans="1:7" ht="42.75">
       <c r="A84" s="6"/>
       <c r="B84" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F84" s="7">
         <v>163.96</v>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="86" spans="1:7" ht="28.5">
       <c r="A86" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2115,7 +2115,7 @@
     <row r="87" spans="1:7" ht="28.5">
       <c r="A87" s="6"/>
       <c r="B87" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="89" spans="1:7" ht="42.75">
       <c r="A89" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2152,12 +2152,12 @@
     <row r="90" spans="1:7" ht="28.5">
       <c r="A90" s="6"/>
       <c r="B90" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F90" s="7">
         <v>125.64</v>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="92" spans="1:7" ht="42.75">
       <c r="A92" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2193,7 +2193,7 @@
     <row r="93" spans="1:7" ht="85.5">
       <c r="A93" s="6"/>
       <c r="B93" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -2206,7 +2206,7 @@
     <row r="94" spans="1:7" ht="57">
       <c r="A94" s="6"/>
       <c r="B94" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -2227,10 +2227,10 @@
     </row>
     <row r="96" spans="1:7" ht="28.5">
       <c r="A96" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -2252,7 +2252,7 @@
     <row r="98" spans="1:7" ht="28.5">
       <c r="A98" s="6"/>
       <c r="B98" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -2265,7 +2265,7 @@
     <row r="99" spans="1:7" ht="28.5">
       <c r="A99" s="6"/>
       <c r="B99" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -2278,7 +2278,7 @@
     <row r="100" spans="1:7" ht="42.75">
       <c r="A100" s="6"/>
       <c r="B100" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -2290,69 +2290,69 @@
     </row>
     <row r="101" spans="1:7" ht="85.5">
       <c r="A101" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="71.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="42.75">
       <c r="A102" s="3" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="85.5">
       <c r="A103" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="71.25">
       <c r="A105" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="28.5">
       <c r="A106" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="28.5">
       <c r="A107" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="57">
       <c r="A108" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="42.75">
       <c r="A109" s="19"/>
       <c r="B109" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="D109" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D109" s="21" t="s">
+      <c r="E109" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="21" t="s">
+      <c r="F109" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F109" s="21" t="s">
+      <c r="G109" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="G109" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="28.5">
       <c r="A110" s="6"/>
       <c r="B110" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" s="7">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G110" s="6">
         <v>0</v>
@@ -2383,15 +2383,15 @@
       <c r="A112" s="6"/>
       <c r="B112" s="9"/>
       <c r="C112" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2421,12 +2421,12 @@
     <row r="115" spans="1:7" ht="71.25">
       <c r="A115" s="6"/>
       <c r="B115" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F115" s="7">
         <v>32.21</v>
@@ -2438,7 +2438,7 @@
     <row r="116" spans="1:7" ht="42.75">
       <c r="A116" s="6"/>
       <c r="B116" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="118" spans="1:7" ht="42.75">
       <c r="A118" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -2479,12 +2479,12 @@
     <row r="119" spans="1:7" ht="42.75">
       <c r="A119" s="6"/>
       <c r="B119" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F119" s="7">
         <v>163.96</v>
@@ -2496,12 +2496,12 @@
     <row r="120" spans="1:7" ht="42.75">
       <c r="A120" s="6"/>
       <c r="B120" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F120" s="7">
         <v>163.96</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="122" spans="1:7" ht="28.5">
       <c r="A122" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2537,7 +2537,7 @@
     <row r="123" spans="1:7" ht="28.5">
       <c r="A123" s="6"/>
       <c r="B123" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="125" spans="1:7" ht="42.75">
       <c r="A125" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2574,12 +2574,12 @@
     <row r="126" spans="1:7" ht="28.5">
       <c r="A126" s="6"/>
       <c r="B126" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F126" s="7">
         <v>125.64</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="128" spans="1:7" ht="42.75">
       <c r="A128" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -2615,7 +2615,7 @@
     <row r="129" spans="1:7" ht="85.5">
       <c r="A129" s="6"/>
       <c r="B129" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -2636,10 +2636,10 @@
     </row>
     <row r="131" spans="1:7" ht="28.5">
       <c r="A131" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -2661,7 +2661,7 @@
     <row r="133" spans="1:7" ht="28.5">
       <c r="A133" s="6"/>
       <c r="B133" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -2674,7 +2674,7 @@
     <row r="134" spans="1:7" ht="28.5">
       <c r="A134" s="6"/>
       <c r="B134" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -2687,7 +2687,7 @@
     <row r="135" spans="1:7" ht="42.75">
       <c r="A135" s="6"/>
       <c r="B135" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -2699,69 +2699,69 @@
     </row>
     <row r="136" spans="1:7" ht="85.5">
       <c r="A136" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="71.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="42.75">
       <c r="A137" s="3" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="85.5">
       <c r="A138" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="71.25">
       <c r="A140" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="28.5">
       <c r="A141" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="28.5">
       <c r="A142" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="57">
       <c r="A143" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="42.75">
       <c r="A144" s="19"/>
       <c r="B144" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="21" t="s">
+      <c r="D144" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D144" s="21" t="s">
+      <c r="E144" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E144" s="21" t="s">
+      <c r="F144" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F144" s="21" t="s">
+      <c r="G144" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="G144" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="28.5">
       <c r="A145" s="6"/>
       <c r="B145" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C145" s="7">
         <v>0</v>
@@ -2792,15 +2792,15 @@
       <c r="A147" s="6"/>
       <c r="B147" s="9"/>
       <c r="C147" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
       <c r="G147" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -2830,12 +2830,12 @@
     <row r="150" spans="1:7" ht="71.25">
       <c r="A150" s="6"/>
       <c r="B150" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F150" s="7">
         <v>32.21</v>
@@ -2847,7 +2847,7 @@
     <row r="151" spans="1:7" ht="42.75">
       <c r="A151" s="6"/>
       <c r="B151" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="153" spans="1:7" ht="42.75">
       <c r="A153" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
@@ -2888,12 +2888,12 @@
     <row r="154" spans="1:7" ht="42.75">
       <c r="A154" s="6"/>
       <c r="B154" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F154" s="7">
         <v>163.96</v>
@@ -2905,12 +2905,12 @@
     <row r="155" spans="1:7" ht="42.75">
       <c r="A155" s="6"/>
       <c r="B155" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F155" s="7">
         <v>163.96</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="157" spans="1:7" ht="28.5">
       <c r="A157" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
@@ -2946,7 +2946,7 @@
     <row r="158" spans="1:7" ht="28.5">
       <c r="A158" s="6"/>
       <c r="B158" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="160" spans="1:7" ht="42.75">
       <c r="A160" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
@@ -2983,12 +2983,12 @@
     <row r="161" spans="1:7" ht="28.5">
       <c r="A161" s="6"/>
       <c r="B161" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F161" s="7">
         <v>125.64</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="163" spans="1:7" ht="42.75">
       <c r="A163" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -3024,7 +3024,7 @@
     <row r="164" spans="1:7" ht="85.5">
       <c r="A164" s="6"/>
       <c r="B164" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="166" spans="1:7" ht="28.5">
       <c r="A166" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
@@ -3070,7 +3070,7 @@
     <row r="168" spans="1:7" ht="28.5">
       <c r="A168" s="6"/>
       <c r="B168" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
@@ -3083,7 +3083,7 @@
     <row r="169" spans="1:7" ht="28.5">
       <c r="A169" s="6"/>
       <c r="B169" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
@@ -3096,7 +3096,7 @@
     <row r="170" spans="1:7" ht="42.75">
       <c r="A170" s="6"/>
       <c r="B170" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
@@ -3108,69 +3108,69 @@
     </row>
     <row r="171" spans="1:7" ht="85.5">
       <c r="A171" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="71.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="42.75">
       <c r="A172" s="3" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="85.5">
       <c r="A173" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="71.25">
       <c r="A175" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="28.5">
       <c r="A176" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="28.5">
       <c r="A177" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="57">
       <c r="A178" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="42.75">
       <c r="A179" s="19"/>
       <c r="B179" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C179" s="21" t="s">
+      <c r="D179" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D179" s="21" t="s">
+      <c r="E179" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E179" s="21" t="s">
+      <c r="F179" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F179" s="21" t="s">
+      <c r="G179" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="G179" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="42.75">
       <c r="A180" s="6"/>
       <c r="B180" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C180" s="7">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>20</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G180" s="6">
         <v>0</v>
@@ -3191,7 +3191,7 @@
     <row r="181" spans="1:7" ht="28.5">
       <c r="A181" s="6"/>
       <c r="B181" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C181" s="7">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>1711</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G181" s="6">
         <v>0</v>
@@ -3222,15 +3222,15 @@
       <c r="A183" s="6"/>
       <c r="B183" s="9"/>
       <c r="C183" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
       <c r="G183" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -3268,10 +3268,10 @@
     </row>
     <row r="187" spans="1:7" ht="42.75">
       <c r="A187" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
@@ -3284,12 +3284,12 @@
     <row r="188" spans="1:7" ht="42.75">
       <c r="A188" s="6"/>
       <c r="B188" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F188" s="7">
         <v>163.96</v>
@@ -3301,12 +3301,12 @@
     <row r="189" spans="1:7" ht="42.75">
       <c r="A189" s="6"/>
       <c r="B189" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F189" s="7">
         <v>163.96</v>
@@ -3326,10 +3326,10 @@
     </row>
     <row r="191" spans="1:7" ht="28.5">
       <c r="A191" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
@@ -3342,7 +3342,7 @@
     <row r="192" spans="1:7" ht="28.5">
       <c r="A192" s="6"/>
       <c r="B192" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="194" spans="1:7" ht="42.75">
       <c r="A194" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
@@ -3379,12 +3379,12 @@
     <row r="195" spans="1:7" ht="28.5">
       <c r="A195" s="6"/>
       <c r="B195" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F195" s="7">
         <v>125.64</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="197" spans="1:7" ht="42.75">
       <c r="A197" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
@@ -3420,7 +3420,7 @@
     <row r="198" spans="1:7" ht="85.5">
       <c r="A198" s="6"/>
       <c r="B198" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
@@ -3433,7 +3433,7 @@
     <row r="199" spans="1:7" ht="57">
       <c r="A199" s="6"/>
       <c r="B199" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="201" spans="1:7" ht="28.5">
       <c r="A201" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
@@ -3479,7 +3479,7 @@
     <row r="203" spans="1:7" ht="28.5">
       <c r="A203" s="6"/>
       <c r="B203" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
@@ -3492,7 +3492,7 @@
     <row r="204" spans="1:7" ht="28.5">
       <c r="A204" s="6"/>
       <c r="B204" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
@@ -3505,7 +3505,7 @@
     <row r="205" spans="1:7" ht="42.75">
       <c r="A205" s="6"/>
       <c r="B205" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
@@ -3517,63 +3517,63 @@
     </row>
     <row r="206" spans="1:7" ht="85.5">
       <c r="A206" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="71.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="42.75">
       <c r="A207" s="3" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="85.5">
       <c r="A208" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="71.25">
       <c r="A210" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="28.5">
       <c r="A211" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="28.5">
       <c r="A212" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="57">
       <c r="A213" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="42.75">
       <c r="A214" s="19"/>
       <c r="B214" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C214" s="21" t="s">
+      <c r="D214" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D214" s="21" t="s">
+      <c r="E214" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E214" s="21" t="s">
+      <c r="F214" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F214" s="21" t="s">
+      <c r="G214" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="G214" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -3589,15 +3589,15 @@
       <c r="A216" s="6"/>
       <c r="B216" s="9"/>
       <c r="C216" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
       <c r="G216" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -3635,10 +3635,10 @@
     </row>
     <row r="220" spans="1:7" ht="42.75">
       <c r="A220" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
@@ -3651,12 +3651,12 @@
     <row r="221" spans="1:7" ht="42.75">
       <c r="A221" s="6"/>
       <c r="B221" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F221" s="7">
         <v>163.96</v>
@@ -3668,12 +3668,12 @@
     <row r="222" spans="1:7" ht="42.75">
       <c r="A222" s="6"/>
       <c r="B222" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F222" s="7">
         <v>163.96</v>
@@ -3693,10 +3693,10 @@
     </row>
     <row r="224" spans="1:7" ht="28.5">
       <c r="A224" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
@@ -3709,7 +3709,7 @@
     <row r="225" spans="1:7" ht="28.5">
       <c r="A225" s="6"/>
       <c r="B225" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="227" spans="1:7" ht="42.75">
       <c r="A227" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
@@ -3746,12 +3746,12 @@
     <row r="228" spans="1:7" ht="28.5">
       <c r="A228" s="6"/>
       <c r="B228" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F228" s="7">
         <v>125.64</v>
@@ -3771,10 +3771,10 @@
     </row>
     <row r="230" spans="1:7" ht="42.75">
       <c r="A230" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
@@ -3787,7 +3787,7 @@
     <row r="231" spans="1:7" ht="85.5">
       <c r="A231" s="6"/>
       <c r="B231" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="233" spans="1:7" ht="28.5" customHeight="1">
       <c r="A233" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
@@ -3833,7 +3833,7 @@
     <row r="235" spans="1:7" ht="28.5">
       <c r="A235" s="6"/>
       <c r="B235" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
@@ -3846,7 +3846,7 @@
     <row r="236" spans="1:7" ht="28.5">
       <c r="A236" s="6"/>
       <c r="B236" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
@@ -3859,7 +3859,7 @@
     <row r="237" spans="1:7" ht="42.75">
       <c r="A237" s="6"/>
       <c r="B237" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
@@ -3871,62 +3871,62 @@
     </row>
     <row r="238" spans="1:7" ht="28.5" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="71.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="42.75">
       <c r="A239" s="3" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="99.75">
       <c r="A240" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="71.25">
       <c r="A242" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="28.5" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="57">
       <c r="A244" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="57">
       <c r="A245" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B245" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B245" s="21" t="s">
+      <c r="C245" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C245" s="21" t="s">
+      <c r="D245" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D245" s="21" t="s">
+      <c r="E245" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="E245" s="19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B246" s="11">
-        <v>498552.67</v>
+        <v>499026</v>
       </c>
       <c r="C246" s="7">
         <v>0</v>
@@ -3941,22 +3941,22 @@
     <row r="247" spans="1:5" ht="28.5">
       <c r="A247" s="13"/>
       <c r="B247" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="28.5" customHeight="1">
       <c r="A248" s="13"/>
       <c r="B248" s="11">
-        <v>498552.67</v>
+        <v>499026</v>
       </c>
       <c r="C248" s="7">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="250" spans="1:5" ht="42.75">
       <c r="A250" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="7">
@@ -3988,7 +3988,7 @@
     </row>
     <row r="251" spans="1:5" ht="42.75">
       <c r="A251" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="7">
@@ -4006,44 +4006,44 @@
     </row>
     <row r="253" spans="1:5" ht="42.75" customHeight="1">
       <c r="A253" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="12">
-        <v>254707.20000000001</v>
+        <v>255134.66</v>
       </c>
       <c r="D253" s="7"/>
       <c r="E253" s="6"/>
     </row>
     <row r="254" spans="1:5" ht="71.25">
       <c r="A254" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="12">
-        <v>33712.97</v>
+        <v>33758.839999999997</v>
       </c>
       <c r="D254" s="7"/>
       <c r="E254" s="6"/>
     </row>
     <row r="255" spans="1:5" ht="85.5">
       <c r="A255" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="12">
-        <v>498552.67</v>
+        <v>499026</v>
       </c>
       <c r="D255" s="7"/>
       <c r="E255" s="6"/>
     </row>
     <row r="256" spans="1:5" ht="57">
       <c r="A256" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="12">
-        <v>498552.67</v>
+        <v>499026</v>
       </c>
       <c r="D256" s="7"/>
       <c r="E256" s="6"/>
@@ -4051,7 +4051,7 @@
     <row r="257" spans="1:5" ht="42.75">
       <c r="A257" s="13"/>
       <c r="B257" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C257" s="7">
         <v>376.2</v>
@@ -4062,10 +4062,10 @@
     <row r="258" spans="1:5" ht="28.5" customHeight="1">
       <c r="A258" s="13"/>
       <c r="B258" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C258" s="7">
-        <v>268.33</v>
+        <v>268.69</v>
       </c>
       <c r="D258" s="7"/>
       <c r="E258" s="6"/>
@@ -4073,7 +4073,7 @@
     <row r="259" spans="1:5" ht="57">
       <c r="A259" s="13"/>
       <c r="B259" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C259" s="7">
         <v>0</v>
@@ -4084,7 +4084,7 @@
     <row r="260" spans="1:5" ht="71.25">
       <c r="A260" s="13"/>
       <c r="B260" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C260" s="7">
         <v>0</v>
@@ -4094,59 +4094,59 @@
     </row>
     <row r="261" spans="1:5" ht="85.5">
       <c r="A261" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="71.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="42.75">
       <c r="A262" s="3" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="42.75" customHeight="1">
       <c r="A263" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="71.25">
       <c r="A265" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="28.5">
       <c r="A266" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="57">
       <c r="A267" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="42.75">
       <c r="A268" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B268" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B268" s="21" t="s">
+      <c r="C268" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C268" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="21" t="s">
+      <c r="E268" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="E268" s="19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15" customHeight="1">
       <c r="A269" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B269" s="7">
         <v>0</v>
@@ -4165,18 +4165,18 @@
       <c r="A270" s="13"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="28.5">
       <c r="A271" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="7">
@@ -4191,22 +4191,22 @@
     </row>
     <row r="272" spans="1:5" ht="42.75">
       <c r="A272" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B272" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B272" s="21" t="s">
-        <v>70</v>
-      </c>
       <c r="C272" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E272" s="22"/>
     </row>
     <row r="273" spans="1:5" ht="42.75">
       <c r="A273" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B273" s="7">
         <v>8</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="274" spans="1:5" ht="42.75">
       <c r="A274" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B274" s="7">
         <v>24</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="275" spans="1:5" ht="57">
       <c r="A275" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B275" s="7">
         <v>144</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="276" spans="1:5" ht="42.75">
       <c r="A276" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B276" s="7">
         <v>288</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="277" spans="1:5" ht="57">
       <c r="A277" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B277" s="7">
         <v>12</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="278" spans="1:5" ht="42.75">
       <c r="A278" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B278" s="7">
         <v>144</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="279" spans="1:5" ht="57">
       <c r="A279" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B279" s="7">
         <v>216</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="280" spans="1:5" ht="57">
       <c r="A280" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B280" s="7">
         <v>24</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="281" spans="1:5" ht="57">
       <c r="A281" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B281" s="7">
         <v>72</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="282" spans="1:5" ht="57">
       <c r="A282" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B282" s="7">
         <v>48</v>
@@ -4358,16 +4358,16 @@
       <c r="A283" s="13"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E283" s="13"/>
     </row>
     <row r="284" spans="1:5" ht="28.5">
       <c r="A284" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="7">
@@ -4380,99 +4380,99 @@
     </row>
     <row r="285" spans="1:5" ht="85.5">
       <c r="A285" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="71.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="42.75">
       <c r="A286" s="3" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="114">
       <c r="A287" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="71.25">
       <c r="A289" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="28.5">
       <c r="A290" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="57">
       <c r="A291" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="156.75">
       <c r="A292" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="185.25">
       <c r="A293" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="85.5">
       <c r="A294" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="71.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="42.75">
       <c r="A295" s="3" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="57">
       <c r="A296" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="71.25">
       <c r="A298" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="28.5">
       <c r="A299" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="28.5">
       <c r="A300" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="57">
       <c r="A301" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42.75" customHeight="1">
       <c r="A302" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B302" s="25"/>
       <c r="C302" s="24"/>
     </row>
     <row r="303" spans="1:3" ht="28.5" customHeight="1">
       <c r="A303" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B303" s="16"/>
       <c r="C303" s="17">
@@ -4481,7 +4481,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B304" s="14">
         <v>8.58</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="305" spans="1:3" ht="42.75" customHeight="1">
       <c r="A305" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B305" s="14">
         <v>0</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="306" spans="1:3" ht="28.5" customHeight="1">
       <c r="A306" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B306" s="14">
         <v>0</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B307" s="14">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="308" spans="1:3" ht="42.75" customHeight="1">
       <c r="A308" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B308" s="14">
         <v>0</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="309" spans="1:3" ht="28.5" customHeight="1">
       <c r="A309" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B309" s="14">
         <v>0</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="310" spans="1:3" ht="28.5" customHeight="1">
       <c r="A310" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B310" s="16"/>
       <c r="C310" s="17">
@@ -4544,7 +4544,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B311" s="14">
         <v>0</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B312" s="14">
         <v>0</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="313" spans="1:3" ht="28.5" customHeight="1">
       <c r="A313" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B313" s="14">
         <v>0</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B314" s="14">
         <v>0</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="315" spans="1:3" ht="28.5">
       <c r="A315" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B315" s="14">
         <v>0</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="316" spans="1:3" ht="28.5" customHeight="1">
       <c r="A316" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B316" s="14">
         <v>0</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="317" spans="1:3" ht="28.5" customHeight="1">
       <c r="A317" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B317" s="16"/>
       <c r="C317" s="17">
@@ -4607,7 +4607,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B318" s="14">
         <v>0</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B319" s="14">
         <v>0</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="320" spans="1:3" ht="28.5" customHeight="1">
       <c r="A320" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B320" s="14">
         <v>0</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B321" s="14">
         <v>0</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="322" spans="1:3" ht="28.5">
       <c r="A322" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B322" s="14">
         <v>0</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="323" spans="1:3" ht="28.5" customHeight="1">
       <c r="A323" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B323" s="14">
         <v>0</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="324" spans="1:3" ht="28.5" customHeight="1">
       <c r="A324" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B324" s="16"/>
       <c r="C324" s="17">
@@ -4670,7 +4670,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B325" s="14">
         <v>0</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B326" s="14">
         <v>0</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="327" spans="1:3" ht="28.5" customHeight="1">
       <c r="A327" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B327" s="14">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B328" s="14">
         <v>0</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="329" spans="1:3" ht="28.5">
       <c r="A329" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B329" s="14">
         <v>0</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="330" spans="1:3" ht="28.5" customHeight="1">
       <c r="A330" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B330" s="14">
         <v>0</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="331" spans="1:3" ht="42.75" customHeight="1">
       <c r="A331" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B331" s="16"/>
       <c r="C331" s="17">
@@ -4733,7 +4733,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B332" s="14">
         <v>80</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B333" s="14">
         <v>0</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="334" spans="1:3" ht="28.5" customHeight="1">
       <c r="A334" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B334" s="14">
         <v>0</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B335" s="14">
         <v>0</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="336" spans="1:3" ht="28.5">
       <c r="A336" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B336" s="14">
         <v>0</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="337" spans="1:3" ht="42.75" customHeight="1">
       <c r="A337" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B337" s="14">
         <v>0</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="338" spans="1:3" ht="28.5" customHeight="1">
       <c r="A338" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B338" s="16"/>
       <c r="C338" s="17">
@@ -4796,7 +4796,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B339" s="14">
         <v>0</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B340" s="14">
         <v>0</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B341" s="14">
         <v>0</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="342" spans="1:3" ht="15" customHeight="1">
       <c r="A342" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B342" s="14">
         <v>0</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="343" spans="1:3" ht="28.5">
       <c r="A343" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B343" s="14">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="344" spans="1:3" ht="28.5" customHeight="1">
       <c r="A344" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B344" s="14">
         <v>0</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="345" spans="1:3" ht="42.75" customHeight="1">
       <c r="A345" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B345" s="16"/>
       <c r="C345" s="18">
@@ -4859,7 +4859,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B346" s="15">
         <v>87296</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B347" s="15">
         <v>3352</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B348" s="14">
         <v>0</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B349" s="14">
         <v>0</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="350" spans="1:3" ht="28.5">
       <c r="A350" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B350" s="15">
         <v>1565</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="351" spans="1:3" ht="42.75" customHeight="1">
       <c r="A351" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B351" s="14">
         <v>0</v>
@@ -4915,12 +4915,12 @@
       <c r="A352" s="16"/>
       <c r="B352" s="16"/>
       <c r="C352" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="15" customHeight="1">
       <c r="A353" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B353" s="16"/>
       <c r="C353" s="18">
@@ -4934,13 +4934,13 @@
     </row>
     <row r="355" spans="1:7" ht="99.75">
       <c r="A355" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B355" s="24"/>
     </row>
     <row r="356" spans="1:7" ht="85.5">
       <c r="A356" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B356" s="18">
         <v>92301.58</v>
@@ -4952,74 +4952,74 @@
     </row>
     <row r="358" spans="1:7" ht="85.5">
       <c r="A358" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="15" customHeight="1">
       <c r="A359" s="3" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="71.25">
       <c r="A360" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="71.25">
       <c r="A362" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="28.5">
       <c r="A363" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="57">
       <c r="A364" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="71.25">
       <c r="A365" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B365" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B365" s="20" t="s">
+      <c r="C365" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C365" s="20" t="s">
+      <c r="D365" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D365" s="20" t="s">
+      <c r="E365" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E365" s="21" t="s">
+      <c r="F365" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F365" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="G365" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="28.5">
       <c r="A366" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C366" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D366" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D366" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="E366" s="7">
         <v>73.8</v>
@@ -5033,16 +5033,16 @@
     </row>
     <row r="367" spans="1:7" ht="28.5">
       <c r="A367" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C367" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D367" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D367" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="E367" s="7">
         <v>215.93</v>
@@ -5056,16 +5056,16 @@
     </row>
     <row r="368" spans="1:7" ht="28.5">
       <c r="A368" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C368" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D368" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D368" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="E368" s="7">
         <v>86.07</v>
@@ -5079,16 +5079,16 @@
     </row>
     <row r="369" spans="1:7" ht="28.5">
       <c r="A369" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C369" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D369" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D369" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="E369" s="7">
         <v>0</v>
@@ -5106,11 +5106,11 @@
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
       <c r="E370" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F370" s="7"/>
       <c r="G370" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -5128,16 +5128,16 @@
     </row>
     <row r="372" spans="1:7" ht="42.75">
       <c r="A372" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B372" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C372" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C372" s="9" t="s">
+      <c r="D372" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D372" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E372" s="7">
         <v>187.71</v>
@@ -5151,16 +5151,16 @@
     </row>
     <row r="373" spans="1:7" ht="42.75">
       <c r="A373" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C373" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D373" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D373" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E373" s="7">
         <v>84.34</v>
@@ -5174,16 +5174,16 @@
     </row>
     <row r="374" spans="1:7" ht="42.75">
       <c r="A374" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C374" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D374" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D374" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E374" s="7">
         <v>109.25</v>
@@ -5197,16 +5197,16 @@
     </row>
     <row r="375" spans="1:7" ht="42.75">
       <c r="A375" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C375" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D375" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D375" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E375" s="7">
         <v>0</v>
@@ -5224,11 +5224,11 @@
       <c r="C376" s="9"/>
       <c r="D376" s="9"/>
       <c r="E376" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F376" s="7"/>
       <c r="G376" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -5246,11 +5246,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="C303:C309"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="C310:C316"/>
     <mergeCell ref="A338:B338"/>
     <mergeCell ref="C338:C344"/>
     <mergeCell ref="A317:B317"/>
@@ -5266,6 +5261,11 @@
     <mergeCell ref="A353:B353"/>
     <mergeCell ref="A354:B354"/>
     <mergeCell ref="C353:C354"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="C303:C309"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="C310:C316"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
